--- a/natmiOut/OldD4/LR-pairs_lrc2p/Myoc-Fzd3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Myoc-Fzd3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t>Fzd3</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>14.7070118788644</v>
+        <v>0.1664173333333333</v>
       </c>
       <c r="H2">
-        <v>14.7070118788644</v>
+        <v>0.499252</v>
       </c>
       <c r="I2">
-        <v>0.9254177044729294</v>
+        <v>0.009928329481286188</v>
       </c>
       <c r="J2">
-        <v>0.9254177044729294</v>
+        <v>0.01026989293949489</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.205419388815098</v>
+        <v>0.2078313333333333</v>
       </c>
       <c r="N2">
-        <v>0.205419388815098</v>
+        <v>0.623494</v>
       </c>
       <c r="O2">
-        <v>0.08816794801080281</v>
+        <v>0.08621557350328635</v>
       </c>
       <c r="P2">
-        <v>0.08816794801080281</v>
+        <v>0.112461889302165</v>
       </c>
       <c r="Q2">
-        <v>3.021105391452711</v>
+        <v>0.03458673627644444</v>
       </c>
       <c r="R2">
-        <v>3.021105391452711</v>
+        <v>0.311280626488</v>
       </c>
       <c r="S2">
-        <v>0.08159218005624572</v>
+        <v>0.0008559766201586741</v>
       </c>
       <c r="T2">
-        <v>0.08159218005624572</v>
+        <v>0.00115497156290656</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>14.7070118788644</v>
+        <v>0.1664173333333333</v>
       </c>
       <c r="H3">
-        <v>14.7070118788644</v>
+        <v>0.499252</v>
       </c>
       <c r="I3">
-        <v>0.9254177044729294</v>
+        <v>0.009928329481286188</v>
       </c>
       <c r="J3">
-        <v>0.9254177044729294</v>
+        <v>0.01026989293949489</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.478807154662754</v>
+        <v>0.498127</v>
       </c>
       <c r="N3">
-        <v>0.478807154662754</v>
+        <v>1.494381</v>
       </c>
       <c r="O3">
-        <v>0.2055085674386124</v>
+        <v>0.206640184103479</v>
       </c>
       <c r="P3">
-        <v>0.2055085674386124</v>
+        <v>0.2695469573039334</v>
       </c>
       <c r="Q3">
-        <v>7.041822511310387</v>
+        <v>0.08289696700133334</v>
       </c>
       <c r="R3">
-        <v>7.041822511310387</v>
+        <v>0.746072703012</v>
       </c>
       <c r="S3">
-        <v>0.1901812667285609</v>
+        <v>0.002051591831852976</v>
       </c>
       <c r="T3">
-        <v>0.1901812667285609</v>
+        <v>0.002768218393677996</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>14.7070118788644</v>
+        <v>0.1664173333333333</v>
       </c>
       <c r="H4">
-        <v>14.7070118788644</v>
+        <v>0.499252</v>
       </c>
       <c r="I4">
-        <v>0.9254177044729294</v>
+        <v>0.009928329481286188</v>
       </c>
       <c r="J4">
-        <v>0.9254177044729294</v>
+        <v>0.01026989293949489</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.64563814601145</v>
+        <v>0.016887</v>
       </c>
       <c r="N4">
-        <v>1.64563814601145</v>
+        <v>0.050661</v>
       </c>
       <c r="O4">
-        <v>0.7063234845505848</v>
+        <v>0.007005307459654767</v>
       </c>
       <c r="P4">
-        <v>0.7063234845505848</v>
+        <v>0.009137909545139137</v>
       </c>
       <c r="Q4">
-        <v>24.20241976170278</v>
+        <v>0.002810289508</v>
       </c>
       <c r="R4">
-        <v>24.20241976170278</v>
+        <v>0.025292605572</v>
       </c>
       <c r="S4">
-        <v>0.6536442576881227</v>
+        <v>6.955100057716447E-05</v>
       </c>
       <c r="T4">
-        <v>0.6536442576881227</v>
+        <v>9.384535271936738E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.18528390041374</v>
+        <v>0.1664173333333333</v>
       </c>
       <c r="H5">
-        <v>1.18528390041374</v>
+        <v>0.499252</v>
       </c>
       <c r="I5">
-        <v>0.07458229552707067</v>
+        <v>0.009928329481286188</v>
       </c>
       <c r="J5">
-        <v>0.07458229552707067</v>
+        <v>0.01026989293949489</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.205419388815098</v>
+        <v>1.6877555</v>
       </c>
       <c r="N5">
-        <v>0.205419388815098</v>
+        <v>3.375511</v>
       </c>
       <c r="O5">
-        <v>0.08816794801080281</v>
+        <v>0.7001389349335798</v>
       </c>
       <c r="P5">
-        <v>0.08816794801080281</v>
+        <v>0.6088532438487625</v>
       </c>
       <c r="Q5">
-        <v>0.243480294395366</v>
+        <v>0.2808717696286667</v>
       </c>
       <c r="R5">
-        <v>0.243480294395366</v>
+        <v>1.685230617772</v>
       </c>
       <c r="S5">
-        <v>0.006575767954557098</v>
+        <v>0.006951210028697372</v>
       </c>
       <c r="T5">
-        <v>0.006575767954557098</v>
+        <v>0.006252857630190966</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.18528390041374</v>
+        <v>14.92301466666667</v>
       </c>
       <c r="H6">
-        <v>1.18528390041374</v>
+        <v>44.76904399999999</v>
       </c>
       <c r="I6">
-        <v>0.07458229552707067</v>
+        <v>0.8902955208876449</v>
       </c>
       <c r="J6">
-        <v>0.07458229552707067</v>
+        <v>0.920924280490686</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.478807154662754</v>
+        <v>0.2078313333333333</v>
       </c>
       <c r="N6">
-        <v>0.478807154662754</v>
+        <v>0.623494</v>
       </c>
       <c r="O6">
-        <v>0.2055085674386124</v>
+        <v>0.08621557350328635</v>
       </c>
       <c r="P6">
-        <v>0.2055085674386124</v>
+        <v>0.112461889302165</v>
       </c>
       <c r="Q6">
-        <v>0.5675224118246739</v>
+        <v>3.101470035526222</v>
       </c>
       <c r="R6">
-        <v>0.5675224118246739</v>
+        <v>27.91323031973599</v>
       </c>
       <c r="S6">
-        <v>0.01532730071005152</v>
+        <v>0.07675733892073534</v>
       </c>
       <c r="T6">
-        <v>0.01532730071005152</v>
+        <v>0.1035688844882195</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.18528390041374</v>
+        <v>14.92301466666667</v>
       </c>
       <c r="H7">
-        <v>1.18528390041374</v>
+        <v>44.76904399999999</v>
       </c>
       <c r="I7">
-        <v>0.07458229552707067</v>
+        <v>0.8902955208876449</v>
       </c>
       <c r="J7">
-        <v>0.07458229552707067</v>
+        <v>0.920924280490686</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.64563814601145</v>
+        <v>0.498127</v>
       </c>
       <c r="N7">
-        <v>1.64563814601145</v>
+        <v>1.494381</v>
       </c>
       <c r="O7">
-        <v>0.7063234845505848</v>
+        <v>0.206640184103479</v>
       </c>
       <c r="P7">
-        <v>0.7063234845505848</v>
+        <v>0.2695469573039334</v>
       </c>
       <c r="Q7">
-        <v>1.950548400374087</v>
+        <v>7.433556526862667</v>
       </c>
       <c r="R7">
-        <v>1.950548400374087</v>
+        <v>66.90200874176399</v>
       </c>
       <c r="S7">
-        <v>0.05267922686246205</v>
+        <v>0.1839708303427257</v>
       </c>
       <c r="T7">
-        <v>0.05267922686246205</v>
+        <v>0.2482323377135785</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>14.92301466666667</v>
+      </c>
+      <c r="H8">
+        <v>44.76904399999999</v>
+      </c>
+      <c r="I8">
+        <v>0.8902955208876449</v>
+      </c>
+      <c r="J8">
+        <v>0.920924280490686</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.016887</v>
+      </c>
+      <c r="N8">
+        <v>0.050661</v>
+      </c>
+      <c r="O8">
+        <v>0.007005307459654767</v>
+      </c>
+      <c r="P8">
+        <v>0.009137909545139137</v>
+      </c>
+      <c r="Q8">
+        <v>0.252004948676</v>
+      </c>
+      <c r="R8">
+        <v>2.268044538084</v>
+      </c>
+      <c r="S8">
+        <v>0.006236793853771445</v>
+      </c>
+      <c r="T8">
+        <v>0.008415322773046231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>14.92301466666667</v>
+      </c>
+      <c r="H9">
+        <v>44.76904399999999</v>
+      </c>
+      <c r="I9">
+        <v>0.8902955208876449</v>
+      </c>
+      <c r="J9">
+        <v>0.920924280490686</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.6877555</v>
+      </c>
+      <c r="N9">
+        <v>3.375511</v>
+      </c>
+      <c r="O9">
+        <v>0.7001389349335798</v>
+      </c>
+      <c r="P9">
+        <v>0.6088532438487625</v>
+      </c>
+      <c r="Q9">
+        <v>25.18640008024733</v>
+      </c>
+      <c r="R9">
+        <v>151.118400481484</v>
+      </c>
+      <c r="S9">
+        <v>0.6233305577704124</v>
+      </c>
+      <c r="T9">
+        <v>0.5607077355158417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.6724345</v>
+      </c>
+      <c r="H10">
+        <v>3.344869</v>
+      </c>
+      <c r="I10">
+        <v>0.09977614963106883</v>
+      </c>
+      <c r="J10">
+        <v>0.06880582656981911</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.2078313333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.623494</v>
+      </c>
+      <c r="O10">
+        <v>0.08621557350328635</v>
+      </c>
+      <c r="P10">
+        <v>0.112461889302165</v>
+      </c>
+      <c r="Q10">
+        <v>0.3475842920476667</v>
+      </c>
+      <c r="R10">
+        <v>2.085505752286</v>
+      </c>
+      <c r="S10">
+        <v>0.008602257962392312</v>
+      </c>
+      <c r="T10">
+        <v>0.007738033251038959</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.6724345</v>
+      </c>
+      <c r="H11">
+        <v>3.344869</v>
+      </c>
+      <c r="I11">
+        <v>0.09977614963106883</v>
+      </c>
+      <c r="J11">
+        <v>0.06880582656981911</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.498127</v>
+      </c>
+      <c r="N11">
+        <v>1.494381</v>
+      </c>
+      <c r="O11">
+        <v>0.206640184103479</v>
+      </c>
+      <c r="P11">
+        <v>0.2695469573039334</v>
+      </c>
+      <c r="Q11">
+        <v>0.8330847801815001</v>
+      </c>
+      <c r="R11">
+        <v>4.998508681089</v>
+      </c>
+      <c r="S11">
+        <v>0.02061776192890033</v>
+      </c>
+      <c r="T11">
+        <v>0.01854640119667688</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.6724345</v>
+      </c>
+      <c r="H12">
+        <v>3.344869</v>
+      </c>
+      <c r="I12">
+        <v>0.09977614963106883</v>
+      </c>
+      <c r="J12">
+        <v>0.06880582656981911</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.016887</v>
+      </c>
+      <c r="N12">
+        <v>0.050661</v>
+      </c>
+      <c r="O12">
+        <v>0.007005307459654767</v>
+      </c>
+      <c r="P12">
+        <v>0.009137909545139137</v>
+      </c>
+      <c r="Q12">
+        <v>0.0282424014015</v>
+      </c>
+      <c r="R12">
+        <v>0.169454408409</v>
+      </c>
+      <c r="S12">
+        <v>0.0006989626053061567</v>
+      </c>
+      <c r="T12">
+        <v>0.000628741419373538</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.6724345</v>
+      </c>
+      <c r="H13">
+        <v>3.344869</v>
+      </c>
+      <c r="I13">
+        <v>0.09977614963106883</v>
+      </c>
+      <c r="J13">
+        <v>0.06880582656981911</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.6877555</v>
+      </c>
+      <c r="N13">
+        <v>3.375511</v>
+      </c>
+      <c r="O13">
+        <v>0.7001389349335798</v>
+      </c>
+      <c r="P13">
+        <v>0.6088532438487625</v>
+      </c>
+      <c r="Q13">
+        <v>2.82266052576475</v>
+      </c>
+      <c r="R13">
+        <v>11.290642103059</v>
+      </c>
+      <c r="S13">
+        <v>0.06985716713447003</v>
+      </c>
+      <c r="T13">
+        <v>0.04189265070272973</v>
       </c>
     </row>
   </sheetData>
